--- a/SPPSApi/Doc/Template/FS1203_Edit.xlsx
+++ b/SPPSApi/Doc/Template/FS1203_Edit.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -57,6 +57,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -404,7 +405,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
